--- a/ccmpacrad/Migration Tasks v0.2.xlsx
+++ b/ccmpacrad/Migration Tasks v0.2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C4FC67-2800-4B82-8AA5-5668EA1A621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06101D6-0F48-4836-AB02-0AAC25898E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones &amp; Storypoints" sheetId="14" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="task_start">#REF!</definedName>
     <definedName name="today" localSheetId="2">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -840,16 +840,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="10">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="170" formatCode="d"/>
+    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="172" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="173" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1796,7 +1796,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1805,10 +1805,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
@@ -1818,9 +1818,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1914,13 +1914,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1932,7 +1932,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1993,13 +1993,13 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="11" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="172" fontId="7" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2059,13 +2059,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="173" fontId="7" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2118,26 +2118,26 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -7948,8 +7948,8 @@
   </sheetPr>
   <dimension ref="A1:BW143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -8006,15 +8006,15 @@
       <c r="F3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106">
+      <c r="H3" s="102"/>
+      <c r="I3" s="103">
         <f ca="1">TODAY()</f>
-        <v>45740</v>
-      </c>
-      <c r="J3" s="106"/>
+        <v>45741</v>
+      </c>
+      <c r="J3" s="103"/>
     </row>
     <row r="4" spans="1:75" ht="30" customHeight="1">
       <c r="A4" s="14" t="s">
@@ -8026,94 +8026,94 @@
       <c r="C4" s="31"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="105"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="6">
         <v>1</v>
       </c>
       <c r="J4"/>
-      <c r="M4" s="101">
+      <c r="M4" s="104">
         <f ca="1">M5</f>
         <v>45740</v>
       </c>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="101">
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="104">
         <f ca="1">T5</f>
         <v>45747</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="101">
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="104">
         <f ca="1">AA5</f>
         <v>45754</v>
       </c>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="101">
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="104">
         <f ca="1">AH5</f>
         <v>45761</v>
       </c>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="101">
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="104">
         <f ca="1">AO5</f>
         <v>45768</v>
       </c>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="102"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="101">
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="104">
         <f ca="1">AV5</f>
         <v>45775</v>
       </c>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="101">
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="104">
         <f ca="1">BC5</f>
         <v>45782</v>
       </c>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="102"/>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="101">
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="105"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="104">
         <f ca="1">BJ5</f>
         <v>45789</v>
       </c>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="102"/>
-      <c r="BM4" s="102"/>
-      <c r="BN4" s="102"/>
-      <c r="BO4" s="102"/>
-      <c r="BP4" s="102"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="105"/>
+      <c r="BM4" s="105"/>
+      <c r="BN4" s="105"/>
+      <c r="BO4" s="105"/>
+      <c r="BP4" s="105"/>
       <c r="BQ4" s="100"/>
       <c r="BR4" s="100"/>
       <c r="BS4" s="100"/>
@@ -8639,7 +8639,7 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="L7" t="str">
-        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="M7" s="11"/>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10">
-        <f t="shared" ref="L11:L24" ca="1" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="L11:L24" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>12</v>
       </c>
       <c r="M11" s="11"/>
@@ -9993,7 +9993,7 @@
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M23" s="11"/>
@@ -10080,7 +10080,7 @@
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M24" s="11"/>
@@ -19316,7 +19316,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ5:BU6 M5:BP142">
+  <conditionalFormatting sqref="M5:BP142 BQ5:BU6">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
     </cfRule>
@@ -19366,8 +19366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6BAF13-7CF8-4CDD-8740-C765246ACBE4}">
   <dimension ref="A15:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19562,6 +19562,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4be47b89-f4a8-4285-a7ca-db2b7c99ceb2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e731d710-1a35-44d1-ae2a-e36bb57a26b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Notes xmlns="e731d710-1a35-44d1-ae2a-e36bb57a26b1" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <e8ac7a188a534491839a8320d31c4324 xmlns="e731d710-1a35-44d1-ae2a-e36bb57a26b1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e8ac7a188a534491839a8320d31c4324>
+    <TaxKeywordTaxHTField xmlns="4be47b89-f4a8-4285-a7ca-db2b7c99ceb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055162EF24F77D14D9E66977FAED2F1BA" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8d38ea8c0d468e9f837823c6788d6c87">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4be47b89-f4a8-4285-a7ca-db2b7c99ceb2" xmlns:ns3="e731d710-1a35-44d1-ae2a-e36bb57a26b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29ddf28874f943445bf28d621f3a79e6" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19851,26 +19871,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4be47b89-f4a8-4285-a7ca-db2b7c99ceb2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e731d710-1a35-44d1-ae2a-e36bb57a26b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Notes xmlns="e731d710-1a35-44d1-ae2a-e36bb57a26b1" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <e8ac7a188a534491839a8320d31c4324 xmlns="e731d710-1a35-44d1-ae2a-e36bb57a26b1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e8ac7a188a534491839a8320d31c4324>
-    <TaxKeywordTaxHTField xmlns="4be47b89-f4a8-4285-a7ca-db2b7c99ceb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19881,15 +19881,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D1412D-77B5-4DC5-9615-304EDA928DA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4be47b89-f4a8-4285-a7ca-db2b7c99ceb2"/>
+    <ds:schemaRef ds:uri="e731d710-1a35-44d1-ae2a-e36bb57a26b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50D1412D-77B5-4DC5-9615-304EDA928DA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4be47b89-f4a8-4285-a7ca-db2b7c99ceb2"/>
+    <ds:schemaRef ds:uri="e731d710-1a35-44d1-ae2a-e36bb57a26b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
